--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent_strict.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent_strict.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut_aid_in_programTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0116144058809861</v>
+        <v>-0.00909143460136564</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.054306590328974</v>
+        <v>-0.0391044692896361</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0310777785670018</v>
+        <v>0.0209216000869048</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0257734039817501</v>
+        <v>-0.0248745755214356</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0788533516409631</v>
+        <v>-0.0626813247689267</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0273065436774629</v>
+        <v>0.0129321737260554</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0225789594340864</v>
+        <v>0.00380154502489296</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.150886524711071</v>
+        <v>-0.112951374195182</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196044443579244</v>
+        <v>0.120554464244968</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0302312737021103</v>
+        <v>-0.0324505655879783</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.137647706599094</v>
+        <v>-0.107147591128177</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0771851591948738</v>
+        <v>0.0422464599522202</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.230973728753898</v>
+        <v>-0.124474901990024</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.344374213590621</v>
+        <v>-0.213438715323915</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.117573243917175</v>
+        <v>-0.0355110886561329</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0428251834594387</v>
+        <v>-0.0485006320675743</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.240715254645744</v>
+        <v>-0.22655316621991</v>
       </c>
       <c r="D7" t="n">
-        <v>0.326365621564622</v>
+        <v>0.129551902084762</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0947755538086383</v>
+        <v>-0.144349327572778</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.221484278126686</v>
+        <v>-0.234381326674561</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0319331705094092</v>
+        <v>-0.0543173284709959</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116148634810361</v>
+        <v>0.113637141813141</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0105467165981093</v>
+        <v>0.0240508085627794</v>
       </c>
       <c r="D9" t="n">
-        <v>0.242843986218831</v>
+        <v>0.203223475063502</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.208525517987939</v>
+        <v>0.114096038164518</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0342795154524193</v>
+        <v>-0.0103402651593815</v>
       </c>
       <c r="D10" t="n">
-        <v>0.382771520523458</v>
+        <v>0.238532341488417</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.036983006240601</v>
+        <v>0.0351871074271903</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.043941470001903</v>
+        <v>-0.0215855864789808</v>
       </c>
       <c r="D11" t="n">
-        <v>0.117907482483105</v>
+        <v>0.0919598013333613</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0247998535928829</v>
+        <v>-0.0240735508390279</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.174344367239111</v>
+        <v>-0.119671251686483</v>
       </c>
       <c r="D12" t="n">
-        <v>0.124744660053345</v>
+        <v>0.0715241500084268</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent_strict.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent_strict.xlsx
@@ -416,10 +416,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00909143460136564</v>
+        <v>-0.00909143460136529</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0391044692896361</v>
+        <v>-0.0391044692896354</v>
       </c>
       <c r="D2" t="n">
         <v>0.0209216000869048</v>
@@ -433,10 +433,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0248745755214356</v>
+        <v>-0.0248745755214357</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0626813247689267</v>
+        <v>-0.0626813247689268</v>
       </c>
       <c r="D3" t="n">
         <v>0.0129321737260554</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00380154502489296</v>
+        <v>0.00380154502489284</v>
       </c>
       <c r="C4" t="n">
         <v>-0.112951374195182</v>
       </c>
       <c r="D4" t="n">
-        <v>0.120554464244968</v>
+        <v>0.120554464244967</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0324505655879783</v>
+        <v>-0.0324505655879784</v>
       </c>
       <c r="C5" t="n">
         <v>-0.107147591128177</v>
@@ -487,7 +487,7 @@
         <v>-0.124474901990024</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.213438715323915</v>
+        <v>-0.213438715323916</v>
       </c>
       <c r="D6" t="n">
         <v>-0.0355110886561329</v>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0485006320675743</v>
+        <v>-0.0485006320675742</v>
       </c>
       <c r="C7" t="n">
         <v>-0.22655316621991</v>
@@ -521,10 +521,10 @@
         <v>-0.144349327572778</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.234381326674561</v>
+        <v>-0.23438132667456</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0543173284709959</v>
+        <v>-0.0543173284709958</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,7 +538,7 @@
         <v>0.113637141813141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0240508085627794</v>
+        <v>0.0240508085627793</v>
       </c>
       <c r="D9" t="n">
         <v>0.203223475063502</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0351871074271903</v>
+        <v>0.0351871074271899</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0215855864789808</v>
+        <v>-0.0215855864789814</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0919598013333613</v>
+        <v>0.0919598013333612</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,10 +586,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0240735508390279</v>
+        <v>-0.0240735508390277</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.119671251686483</v>
+        <v>-0.119671251686482</v>
       </c>
       <c r="D12" t="n">
         <v>0.0715241500084268</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent_strict.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent_strict.xlsx
@@ -416,10 +416,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00909143460136529</v>
+        <v>-0.00909143460136536</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0391044692896354</v>
+        <v>-0.0391044692896355</v>
       </c>
       <c r="D2" t="n">
         <v>0.0209216000869048</v>
@@ -433,10 +433,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0248745755214357</v>
+        <v>-0.0248745755214354</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0626813247689268</v>
+        <v>-0.0626813247689262</v>
       </c>
       <c r="D3" t="n">
         <v>0.0129321737260554</v>
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00380154502489284</v>
+        <v>0.00380154502489282</v>
       </c>
       <c r="C4" t="n">
         <v>-0.112951374195182</v>
@@ -467,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0324505655879784</v>
+        <v>-0.0324505655879783</v>
       </c>
       <c r="C5" t="n">
         <v>-0.107147591128177</v>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0485006320675742</v>
+        <v>-0.0485006320675743</v>
       </c>
       <c r="C7" t="n">
         <v>-0.22655316621991</v>
@@ -521,10 +521,10 @@
         <v>-0.144349327572778</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.23438132667456</v>
+        <v>-0.234381326674561</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0543173284709958</v>
+        <v>-0.054317328470996</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,10 +538,10 @@
         <v>0.113637141813141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0240508085627793</v>
+        <v>0.0240508085627797</v>
       </c>
       <c r="D9" t="n">
-        <v>0.203223475063502</v>
+        <v>0.203223475063503</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -555,7 +555,7 @@
         <v>0.114096038164518</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0103402651593815</v>
+        <v>-0.0103402651593817</v>
       </c>
       <c r="D10" t="n">
         <v>0.238532341488417</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0351871074271899</v>
+        <v>0.0351871074271906</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0215855864789814</v>
+        <v>-0.0215855864789807</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0919598013333612</v>
+        <v>0.0919598013333619</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0240735508390277</v>
+        <v>-0.0240735508390278</v>
       </c>
       <c r="C12" t="n">
         <v>-0.119671251686482</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0715241500084268</v>
+        <v>0.0715241500084269</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
